--- a/MAKRO_products.xlsx
+++ b/MAKRO_products.xlsx
@@ -28,25 +28,25 @@
     <t>Product Picture</t>
   </si>
   <si>
+    <t>เนื้อไก่หมักน้ำมันงา แช่แข็ง 1 กิโลกรัม</t>
+  </si>
+  <si>
+    <t>รหัสสินค้า 836102</t>
+  </si>
+  <si>
+    <t>ราคาต่อชิ้น 59.00฿</t>
+  </si>
+  <si>
+    <t>https://dynamic-cdn-makro.makroclick.com/bicfw0JT0.png?process=resize&amp;resize_width=150&amp;resize_height=150</t>
+  </si>
+  <si>
     <t>เนื้อไก่หมักซอสพริกไทยดำ แช่แข็ง 1 กิโลกรัม</t>
   </si>
   <si>
     <t>รหัสสินค้า 836100</t>
   </si>
   <si>
-    <t>ราคาต่อชิ้น 59.00฿</t>
-  </si>
-  <si>
     <t>https://dynamic-cdn-makro.makroclick.com/b3wYcnnTP.png?process=resize&amp;resize_width=150&amp;resize_height=150</t>
-  </si>
-  <si>
-    <t>เนื้อไก่หมักน้ำมันงา แช่แข็ง 1 กิโลกรัม</t>
-  </si>
-  <si>
-    <t>รหัสสินค้า 836102</t>
-  </si>
-  <si>
-    <t>https://dynamic-cdn-makro.makroclick.com/bicfw0JT0.png?process=resize&amp;resize_width=150&amp;resize_height=150</t>
   </si>
   <si>
     <t>Premium แซลมอนเทร้ารมควันสไลด์ 100 ก. 1 แพ็ค</t>
